--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nizar\excel_gui\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD4399-CA08-47D8-944C-AB7AD2153774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesOrders" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="SalesOrders"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,17 +97,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,23 +110,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +124,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -158,90 +140,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="left" indent="1"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Ctx_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G44" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:G44"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total"/>
+    <tableColumn name="OrderDate" id="1"/>
+    <tableColumn name="Region" id="2"/>
+    <tableColumn name="Rep" id="3"/>
+    <tableColumn name="Item" id="4"/>
+    <tableColumn name="Units" id="5"/>
+    <tableColumn name="Unit Cost" id="6"/>
+    <tableColumn name="Total" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -250,10 +219,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -288,108 +257,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,54 +348,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -470,7 +404,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -479,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -488,7 +422,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,10 +430,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -528,7 +462,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -541,13 +475,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -565,1046 +498,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" style="8" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="10.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="5">
         <v>44202</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>95</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <v>1.99</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="7">
         <v>189.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5">
         <v>44219</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>50</v>
       </c>
-      <c r="F3" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G3" s="11">
-        <v>999.49999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="F3" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G3" s="7">
+        <v>999.4999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5">
         <v>44236</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>36</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>4.99</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>179.64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5">
         <v>44253</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>27</v>
       </c>
-      <c r="F5" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G5" s="7">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5">
         <v>44270</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>56</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>2.99</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5">
         <v>44287</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>60</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <v>4.99</v>
       </c>
-      <c r="G7" s="11">
-        <v>299.39999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="G7" s="7">
+        <v>299.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5">
         <v>44304</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>75</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>1.99</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5">
         <v>44321</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>90</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>4.99</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5">
         <v>44338</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>32</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>1.99</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5">
         <v>44355</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>60</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>8.99</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="5">
         <v>44372</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>90</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>4.99</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="5">
         <v>44389</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>29</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>1.99</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5">
         <v>44406</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>81</v>
       </c>
-      <c r="F14" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G14" s="7">
         <v>1619.19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5">
         <v>44423</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>35</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>4.99</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="5">
         <v>44440</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>125</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5">
         <v>44457</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>16</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>15.99</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5">
         <v>44474</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>28</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>8.99</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5">
         <v>44491</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>64</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>8.99</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5">
         <v>44508</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>15</v>
       </c>
-      <c r="F20" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G20" s="11">
-        <v>299.85000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="F20" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G20" s="7">
+        <v>299.85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5">
         <v>44525</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>96</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>4.99</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="5">
         <v>44542</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>67</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="4">
         <v>1.29</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5">
         <v>44559</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>74</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <v>15.99</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5">
         <v>44576</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>46</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <v>8.99</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="5">
         <v>44593</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>87</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <v>15</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5">
         <v>44610</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>4</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="4">
         <v>4.99</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="7">
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5">
         <v>44627</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>7</v>
       </c>
-      <c r="F27" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="F27" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G27" s="7">
         <v>139.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5">
         <v>44644</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>50</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="4">
         <v>4.99</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="7">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5">
         <v>44661</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>66</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <v>1.99</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5">
         <v>44678</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>96</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="4">
         <v>4.99</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="7">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5">
         <v>44695</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>53</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="4">
         <v>1.29</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5">
         <v>44712</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>80</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="4">
         <v>8.99</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5">
         <v>44729</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <v>125</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5">
         <v>44746</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>62</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <v>4.99</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="7">
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5">
         <v>44763</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>55</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <v>12.49</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5">
         <v>44780</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>42</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="4">
         <v>23.95</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="7">
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5">
         <v>44797</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>3</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="4">
         <v>275</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5">
         <v>44814</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>7</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="4">
         <v>1.29</v>
       </c>
-      <c r="G38" s="11">
-        <v>9.0300000000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="G38" s="7">
+        <v>9.030000000000001</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5">
         <v>44831</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <v>76</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="4">
         <v>1.99</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5">
         <v>44848</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <v>57</v>
       </c>
-      <c r="F40" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G40" s="7">
         <v>1139.43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5">
         <v>44865</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>14</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="4">
         <v>1.29</v>
       </c>
-      <c r="G41" s="11">
-        <v>18.059999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="G41" s="7">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5">
         <v>44882</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <v>11</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="4">
         <v>4.99</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="7">
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5">
         <v>44899</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <v>94</v>
       </c>
-      <c r="F43" s="10">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G43" s="11">
+      <c r="F43" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="G43" s="7">
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5">
         <v>44916</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <v>28</v>
       </c>
-      <c r="F44" s="10">
-        <v>4.99</v>
-      </c>
-      <c r="G44" s="11">
+      <c r="F44" s="4">
+        <v>4.98</v>
+      </c>
+      <c r="G44" s="7">
         <v>139.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LDeveloped by Contextures Inc.&amp;Cwww.contextures.com&amp;R&amp;D</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
